--- a/testdata/1.xlsx
+++ b/testdata/1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>На входе:</t>
   </si>
@@ -242,6 +242,30 @@
   </si>
   <si>
     <t>1-8кв,6-13кв</t>
+  </si>
+  <si>
+    <t>92-104</t>
+  </si>
+  <si>
+    <t>79-91</t>
+  </si>
+  <si>
+    <t>66-78</t>
+  </si>
+  <si>
+    <t>53-65</t>
+  </si>
+  <si>
+    <t>40-52</t>
+  </si>
+  <si>
+    <t>27-39</t>
+  </si>
+  <si>
+    <t>14-26</t>
+  </si>
+  <si>
+    <t>1-13</t>
   </si>
 </sst>
 </file>
